--- a/aimms_model/energy_hub/input_data/Heat_demand.xlsx
+++ b/aimms_model/energy_hub/input_data/Heat_demand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>

--- a/aimms_model/energy_hub/input_data/Heat_demand.xlsx
+++ b/aimms_model/energy_hub/input_data/Heat_demand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
